--- a/Input/Now_Health/Old/benefits.xlsx
+++ b/Input/Now_Health/Old/benefits.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="685" uniqueCount="143">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="500" uniqueCount="126">
   <si>
     <t xml:space="preserve">PlanName</t>
   </si>
@@ -208,10 +208,13 @@
     <t xml:space="preserve">frequency</t>
   </si>
   <si>
-    <t xml:space="preserve">Essential</t>
-  </si>
-  <si>
-    <t xml:space="preserve">USD 3,000,000</t>
+    <t xml:space="preserve">planCopay</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Advance</t>
+  </si>
+  <si>
+    <t xml:space="preserve">USD 3,500,000</t>
   </si>
   <si>
     <t xml:space="preserve">Worldwide excluding USA/Worldwide including USA</t>
@@ -223,46 +226,41 @@
     <t xml:space="preserve">As per reasonable and customary rates</t>
   </si>
   <si>
-    <t xml:space="preserve">Not Available</t>
+    <t xml:space="preserve">Covered in full</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Covered up to USD 41,000</t>
   </si>
   <si>
     <t xml:space="preserve">Private room</t>
   </si>
   <si>
-    <t xml:space="preserve">Covered in full</t>
-  </si>
-  <si>
     <t xml:space="preserve">Covered in full subject to pre-authorization</t>
   </si>
   <si>
-    <t xml:space="preserve">N/A</t>
-  </si>
-  <si>
-    <t xml:space="preserve">No benefit (Options available)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Pre-operative and post-hospitalization- Covered up to USD 2,000 per medical conditon
-*Combined with consultation and diagnostic charges
-15 days from the admission and post hospitalisation consultation within 30 days following discharge from Hospital</t>
+    <t xml:space="preserve">Medicines and diagnostics &amp; lab tests- Covered in full 
+Consultations covered in full</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Covered in full with $ co-pay</t>
   </si>
   <si>
     <t xml:space="preserve">(More options available) Essential vaccinations as stipulated by DHA with $ co-pay</t>
   </si>
   <si>
-    <t xml:space="preserve">Pre-operative and post-hospitalization- Covered up to USD 4,500 with $ co-pay</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Covered up to 5 sessions within 30 days after hospitalization</t>
-  </si>
-  <si>
-    <t xml:space="preserve">No benefit</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Covered in full 
-* 12 months wait applicable</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Premature delivery and emergency medical treatment up to 30 days</t>
+    <t xml:space="preserve">Covered in full up to 30 sessions
+*Pre-authorization required after 10 visits</t>
+  </si>
+  <si>
+    <t xml:space="preserve">OP: Covered as per DHA guildelines
+IP: Normal Delivery and C-Section covered up to USD 2,750</t>
+  </si>
+  <si>
+    <t xml:space="preserve">No wait</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Covered up to USD 40,000 for first 30 days
+Premature delivery and emergency medical treatment covered up to USD 100,000 for 30 days</t>
   </si>
   <si>
     <t xml:space="preserve">&amp;</t>
@@ -275,36 +273,31 @@
     <t xml:space="preserve">9 months wait</t>
   </si>
   <si>
-    <t xml:space="preserve">Covered up to 5 sessions within 30 days after hospitalization
-*This Benefit extends to osteopaths, chiropodists and podiatrists, chiropractors, homeopaths, dietician and acupuncture Treatment</t>
+    <t xml:space="preserve">No benefit (Options available)</t>
   </si>
   <si>
     <t xml:space="preserve">Inpatient psychiatric treatment covered in full
-OP psychiatric treatment not covered</t>
+OP psychiatric treatment covered up to USD 2,500 subject to maximum of 10 sessions</t>
   </si>
   <si>
     <t xml:space="preserve">Available</t>
   </si>
   <si>
+    <t xml:space="preserve">N/A</t>
+  </si>
+  <si>
     <t xml:space="preserve">Worldwide excluding USA</t>
   </si>
   <si>
-    <t xml:space="preserve">Nil / 10% co-pay on all services / 20% co-pay on all services 
-**In-patient co-pay options**
-i) Nil
-ii)USD 1,000 deductible
-iii)USD 2,500 deductible
-iv)USD 5,000 deductible
-v)USD 10,000 deductible
-vi)USD 15,000 deductible</t>
+    <t xml:space="preserve">Nil / 10% on all OP services / 20% on all OP services / USD 15 per visit / USD 25 per visit</t>
+  </si>
+  <si>
+    <t xml:space="preserve">No</t>
   </si>
   <si>
     <t xml:space="preserve">Yes</t>
   </si>
   <si>
-    <t xml:space="preserve">No</t>
-  </si>
-  <si>
     <t xml:space="preserve">2023-04-01</t>
   </si>
   <si>
@@ -323,13 +316,13 @@
     <t xml:space="preserve">Annually</t>
   </si>
   <si>
-    <t xml:space="preserve">Essential Opt 1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Optional Cover 1- Included in optional OP USD 5,000 limit with $ co-pay</t>
-  </si>
-  <si>
-    <t xml:space="preserve">NO</t>
+    <t xml:space="preserve">single</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Advance Wellness Opt 1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Option 1: USD 500 Combined limit with Wellness, Optical and Vaccinations (6 month wait)</t>
   </si>
   <si>
     <t xml:space="preserve">10%/10%</t>
@@ -341,19 +334,42 @@
     <t xml:space="preserve">Monthly</t>
   </si>
   <si>
-    <t xml:space="preserve">Essential Opt 2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Optional Cover 2- Included in optional OP USD 5,000 limit with $ co-pay</t>
+    <t xml:space="preserve">Advance Wellness Opt 2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Option 2: USD 500 Combined limit with Wellness, Optical and Vaccinations (6 month wait)</t>
   </si>
   <si>
     <t xml:space="preserve">20%/20</t>
   </si>
   <si>
-    <t xml:space="preserve">Essential Opt 3</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Optional Cover 3- Included in optional OP USD 3,500 limit with $ co-pay</t>
+    <t xml:space="preserve">Excel</t>
+  </si>
+  <si>
+    <t xml:space="preserve">USD 4,000,000</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Covered in ful
+*Pre-authorization required after 10 visits</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Covered up to USD 40,000 for first 30 days
+Premature delivery and emergency medical treatment covered up to USD 125,000 for 30 days</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Routine dental- Covered up to USD 1,000 with 20% co-pay
+Complex dental- Covered up to USD 2,000 with 20% co-pay</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Covered in full
+*Pre-authorization required after 10 visits</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Inpatient psychiatric treatment covered in full
+OP psychiatric treatment covered up to USD 5,000 subject to maximum of 15 sessions</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10% on all OP services / 20% on all OP services / USD 15 per visit / USD 25 per visit</t>
   </si>
   <si>
     <r>
@@ -385,42 +401,7 @@
     </r>
   </si>
   <si>
-    <t xml:space="preserve">Advance</t>
-  </si>
-  <si>
-    <t xml:space="preserve">USD 3,500,000</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Covered up to USD 41,000</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Medicines and diagnostics &amp; lab tests- Covered in full 
-Consultations covered in full</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Covered in full with $ co-pay</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Covered in full up to 30 sessions
-*Pre-authorization required after 10 visits</t>
-  </si>
-  <si>
-    <t xml:space="preserve">OP: Covered as per DHA guildelines
-IP: Normal Delivery and C-Section covered up to USD 2,750</t>
-  </si>
-  <si>
-    <t xml:space="preserve">No wait</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Covered up to USD 40,000 for first 30 days
-Premature delivery and emergency medical treatment covered up to USD 100,000 for 30 days</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Inpatient psychiatric treatment covered in full
-OP psychiatric treatment covered up to USD 2,500 subject to maximum of 10 sessions</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Nil / 10% on all OP services / 20% on all OP services / USD 15 per visit / USD 25 per visit</t>
+    <t xml:space="preserve">Excel Wellness Opt 1</t>
   </si>
   <si>
     <r>
@@ -450,50 +431,6 @@
       </rPr>
       <t xml:space="preserve">Essential Opt 1</t>
     </r>
-  </si>
-  <si>
-    <t xml:space="preserve">Advance Wellness Opt 1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Option 1: USD 500 Combined limit with Wellness, Optical and Vaccinations (6 month wait)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Advance Wellness Opt 2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Option 2: USD 500 Combined limit with Wellness, Optical and Vaccinations (6 month wait)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Excel</t>
-  </si>
-  <si>
-    <t xml:space="preserve">USD 4,000,000</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Covered in ful
-*Pre-authorization required after 10 visits</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Covered up to USD 40,000 for first 30 days
-Premature delivery and emergency medical treatment covered up to USD 125,000 for 30 days</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Routine dental- Covered up to USD 1,000 with 20% co-pay
-Complex dental- Covered up to USD 2,000 with 20% co-pay</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Covered in full
-*Pre-authorization required after 10 visits</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Inpatient psychiatric treatment covered in full
-OP psychiatric treatment covered up to USD 5,000 subject to maximum of 15 sessions</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10% on all OP services / 20% on all OP services / USD 15 per visit / USD 25 per visit</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Excel Wellness Opt 1</t>
   </si>
   <si>
     <t xml:space="preserve">Excel Wellness Opt 2</t>
@@ -568,8 +505,8 @@
     </font>
     <font>
       <sz val="9"/>
-      <name val=""/>
-      <family val="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
       <charset val="1"/>
     </font>
     <font>
@@ -670,38 +607,33 @@
     </xf>
   </cellXfs>
   <cellStyles count="6">
-    <cellStyle name="Normal" xfId="0" builtinId="0" customBuiltin="false"/>
-    <cellStyle name="Comma" xfId="15" builtinId="3" customBuiltin="false"/>
-    <cellStyle name="Comma [0]" xfId="16" builtinId="6" customBuiltin="false"/>
-    <cellStyle name="Currency" xfId="17" builtinId="4" customBuiltin="false"/>
-    <cellStyle name="Currency [0]" xfId="18" builtinId="7" customBuiltin="false"/>
-    <cellStyle name="Percent" xfId="19" builtinId="5" customBuiltin="false"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Comma" xfId="15" builtinId="3"/>
+    <cellStyle name="Comma [0]" xfId="16" builtinId="6"/>
+    <cellStyle name="Currency" xfId="17" builtinId="4"/>
+    <cellStyle name="Currency [0]" xfId="18" builtinId="7"/>
+    <cellStyle name="Percent" xfId="19" builtinId="5"/>
   </cellStyles>
 </styleSheet>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:BM14"/>
+  <dimension ref="A1:BM10"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D2" activeCellId="0" sqref="D2"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="BF1" colorId="64" zoomScale="65" zoomScaleNormal="65" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="BM3" activeCellId="0" sqref="BM3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.55078125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="18" min="1" style="0" width="11.52"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="19" min="19" style="0" width="39.82"/>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="60" min="20" style="0" width="11.52"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="61" min="61" style="0" width="68.54"/>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="62" min="62" style="0" width="11.52"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="63" min="63" style="0" width="31.12"/>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="64" min="64" style="0" width="11.52"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="65" min="65" style="0" width="74.47"/>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1025" min="66" style="0" width="11.52"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="79.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -893,57 +825,60 @@
       <c r="BL1" s="0" t="s">
         <v>61</v>
       </c>
+      <c r="BM1" s="0" t="s">
+        <v>62</v>
+      </c>
     </row>
-    <row r="2" customFormat="false" ht="225.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="2" customFormat="false" ht="145.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="1" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="E2" s="2"/>
       <c r="F2" s="1" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="H2" s="1" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="I2" s="1" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="J2" s="1" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="K2" s="1" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="L2" s="1" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="M2" s="1" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="N2" s="1" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="O2" s="2"/>
       <c r="P2" s="1" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="Q2" s="1" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="R2" s="1" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="S2" s="1" t="s">
         <v>73</v>
@@ -952,71 +887,71 @@
         <v>74</v>
       </c>
       <c r="U2" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="V2" s="1" t="s">
         <v>75</v>
-      </c>
-      <c r="V2" s="1" t="s">
-        <v>76</v>
       </c>
       <c r="W2" s="2"/>
       <c r="X2" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="Y2" s="1" t="s">
         <v>77</v>
       </c>
-      <c r="Y2" s="1" t="s">
-        <v>71</v>
-      </c>
       <c r="Z2" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="AA2" s="1" t="s">
         <v>78</v>
       </c>
-      <c r="AA2" s="1" t="s">
+      <c r="AC2" s="2" t="s">
         <v>79</v>
       </c>
-      <c r="AC2" s="2" t="s">
+      <c r="AD2" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="AE2" s="4" t="s">
         <v>80</v>
       </c>
-      <c r="AD2" s="2" t="s">
-        <v>80</v>
-      </c>
-      <c r="AE2" s="4" t="s">
+      <c r="AF2" s="4" t="s">
         <v>81</v>
-      </c>
-      <c r="AF2" s="4" t="s">
-        <v>82</v>
       </c>
       <c r="AG2" s="2"/>
       <c r="AH2" s="1" t="s">
-        <v>77</v>
+        <v>82</v>
       </c>
       <c r="AI2" s="1" t="s">
-        <v>77</v>
+        <v>82</v>
       </c>
       <c r="AJ2" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="AK2" s="1" t="s">
         <v>83</v>
       </c>
-      <c r="AK2" s="1" t="s">
-        <v>84</v>
-      </c>
       <c r="AL2" s="1" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="AM2" s="1" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="AN2" s="2"/>
       <c r="AO2" s="1" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="AP2" s="1" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="AQ2" s="2"/>
       <c r="AR2" s="1" t="s">
-        <v>71</v>
+        <v>85</v>
       </c>
       <c r="AS2" s="1" t="s">
-        <v>71</v>
+        <v>85</v>
       </c>
       <c r="AT2" s="1" t="s">
-        <v>71</v>
+        <v>85</v>
       </c>
       <c r="AU2" s="2"/>
       <c r="AV2" s="2"/>
@@ -1031,10 +966,10 @@
         <v>88</v>
       </c>
       <c r="BA2" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="BB2" s="1" t="s">
         <v>88</v>
-      </c>
-      <c r="BB2" s="1" t="s">
-        <v>89</v>
       </c>
       <c r="BC2" s="1" t="s">
         <v>89</v>
@@ -1066,58 +1001,60 @@
       <c r="BL2" s="0" t="s">
         <v>95</v>
       </c>
-      <c r="BM2" s="7"/>
+      <c r="BM2" s="7" t="s">
+        <v>96</v>
+      </c>
     </row>
-    <row r="3" customFormat="false" ht="225.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="3" customFormat="false" ht="145.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="1" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="E3" s="2"/>
       <c r="F3" s="1" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="H3" s="1" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="I3" s="1" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="J3" s="1" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="K3" s="1" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="L3" s="1" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="M3" s="1" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="N3" s="1" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="O3" s="2"/>
       <c r="P3" s="1" t="s">
-        <v>97</v>
+        <v>72</v>
       </c>
       <c r="Q3" s="1" t="s">
-        <v>97</v>
+        <v>73</v>
       </c>
       <c r="R3" s="1" t="s">
-        <v>97</v>
+        <v>73</v>
       </c>
       <c r="S3" s="1" t="s">
         <v>73</v>
@@ -1126,71 +1063,71 @@
         <v>74</v>
       </c>
       <c r="U3" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="V3" s="1" t="s">
         <v>75</v>
-      </c>
-      <c r="V3" s="1" t="s">
-        <v>76</v>
       </c>
       <c r="W3" s="2"/>
       <c r="X3" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="Y3" s="1" t="s">
         <v>77</v>
       </c>
-      <c r="Y3" s="1" t="s">
-        <v>71</v>
-      </c>
       <c r="Z3" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="AA3" s="1" t="s">
         <v>78</v>
       </c>
-      <c r="AA3" s="1" t="s">
+      <c r="AC3" s="2" t="s">
         <v>79</v>
       </c>
-      <c r="AC3" s="2" t="s">
+      <c r="AD3" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="AE3" s="4" t="s">
         <v>80</v>
       </c>
-      <c r="AD3" s="2" t="s">
-        <v>80</v>
-      </c>
-      <c r="AE3" s="4" t="s">
+      <c r="AF3" s="4" t="s">
         <v>81</v>
-      </c>
-      <c r="AF3" s="4" t="s">
-        <v>82</v>
       </c>
       <c r="AG3" s="2"/>
       <c r="AH3" s="1" t="s">
-        <v>77</v>
+        <v>98</v>
       </c>
       <c r="AI3" s="1" t="s">
-        <v>77</v>
+        <v>98</v>
       </c>
       <c r="AJ3" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="AK3" s="1" t="s">
         <v>83</v>
       </c>
-      <c r="AK3" s="1" t="s">
-        <v>84</v>
-      </c>
       <c r="AL3" s="1" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="AM3" s="1" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="AN3" s="2"/>
       <c r="AO3" s="1" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="AP3" s="1" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="AQ3" s="2"/>
       <c r="AR3" s="1" t="s">
-        <v>71</v>
+        <v>85</v>
       </c>
       <c r="AS3" s="1" t="s">
-        <v>71</v>
+        <v>85</v>
       </c>
       <c r="AT3" s="1" t="s">
-        <v>71</v>
+        <v>85</v>
       </c>
       <c r="AU3" s="2"/>
       <c r="AV3" s="2"/>
@@ -1205,11 +1142,11 @@
         <v>88</v>
       </c>
       <c r="BA3" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="BB3" s="1" t="s">
         <v>88</v>
       </c>
-      <c r="BB3" s="1" t="s">
-        <v>89</v>
-      </c>
       <c r="BC3" s="1" t="s">
         <v>89</v>
       </c>
@@ -1217,7 +1154,7 @@
         <v>89</v>
       </c>
       <c r="BE3" s="2" t="s">
-        <v>98</v>
+        <v>89</v>
       </c>
       <c r="BI3" s="5" t="s">
         <v>99</v>
@@ -1229,56 +1166,56 @@
         <v>101</v>
       </c>
     </row>
-    <row r="4" customFormat="false" ht="225.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="4" customFormat="false" ht="145.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="1" t="s">
         <v>102</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="E4" s="2"/>
       <c r="F4" s="1" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="G4" s="1" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="H4" s="1" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="I4" s="1" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="J4" s="1" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="K4" s="1" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="L4" s="1" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="M4" s="1" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="N4" s="1" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="O4" s="2"/>
       <c r="P4" s="1" t="s">
-        <v>103</v>
+        <v>72</v>
       </c>
       <c r="Q4" s="1" t="s">
-        <v>103</v>
+        <v>73</v>
       </c>
       <c r="R4" s="1" t="s">
-        <v>103</v>
+        <v>73</v>
       </c>
       <c r="S4" s="1" t="s">
         <v>73</v>
@@ -1287,71 +1224,71 @@
         <v>74</v>
       </c>
       <c r="U4" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="V4" s="1" t="s">
         <v>75</v>
-      </c>
-      <c r="V4" s="1" t="s">
-        <v>76</v>
       </c>
       <c r="W4" s="2"/>
       <c r="X4" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="Y4" s="1" t="s">
         <v>77</v>
       </c>
-      <c r="Y4" s="1" t="s">
-        <v>71</v>
-      </c>
       <c r="Z4" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="AA4" s="1" t="s">
         <v>78</v>
       </c>
-      <c r="AA4" s="1" t="s">
+      <c r="AC4" s="2" t="s">
         <v>79</v>
       </c>
-      <c r="AC4" s="2" t="s">
+      <c r="AD4" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="AE4" s="4" t="s">
         <v>80</v>
       </c>
-      <c r="AD4" s="2" t="s">
-        <v>80</v>
-      </c>
-      <c r="AE4" s="4" t="s">
+      <c r="AF4" s="4" t="s">
         <v>81</v>
-      </c>
-      <c r="AF4" s="4" t="s">
-        <v>82</v>
       </c>
       <c r="AG4" s="2"/>
       <c r="AH4" s="1" t="s">
-        <v>77</v>
+        <v>103</v>
       </c>
       <c r="AI4" s="1" t="s">
-        <v>77</v>
+        <v>103</v>
       </c>
       <c r="AJ4" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="AK4" s="1" t="s">
         <v>83</v>
       </c>
-      <c r="AK4" s="1" t="s">
-        <v>84</v>
-      </c>
       <c r="AL4" s="1" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="AM4" s="1" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="AN4" s="2"/>
       <c r="AO4" s="1" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="AP4" s="1" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="AQ4" s="2"/>
       <c r="AR4" s="1" t="s">
-        <v>71</v>
+        <v>85</v>
       </c>
       <c r="AS4" s="1" t="s">
-        <v>71</v>
+        <v>85</v>
       </c>
       <c r="AT4" s="1" t="s">
-        <v>71</v>
+        <v>85</v>
       </c>
       <c r="AU4" s="2"/>
       <c r="AV4" s="2"/>
@@ -1366,72 +1303,74 @@
         <v>88</v>
       </c>
       <c r="BA4" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="BB4" s="1" t="s">
         <v>88</v>
       </c>
-      <c r="BB4" s="1" t="s">
-        <v>89</v>
-      </c>
       <c r="BC4" s="1" t="s">
         <v>89</v>
       </c>
       <c r="BD4" s="1" t="s">
         <v>89</v>
       </c>
-      <c r="BE4" s="2"/>
+      <c r="BE4" s="2" t="s">
+        <v>89</v>
+      </c>
       <c r="BI4" s="0" t="s">
         <v>104</v>
       </c>
     </row>
-    <row r="5" customFormat="false" ht="225.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="5" customFormat="false" ht="145.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="1" t="s">
         <v>105</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>63</v>
+        <v>106</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="E5" s="2"/>
       <c r="F5" s="1" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="G5" s="1" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="H5" s="1" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="I5" s="1" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="J5" s="1" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="K5" s="1" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="L5" s="1" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="M5" s="1" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="N5" s="1" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="O5" s="2"/>
       <c r="P5" s="1" t="s">
-        <v>106</v>
+        <v>72</v>
       </c>
       <c r="Q5" s="1" t="s">
-        <v>106</v>
+        <v>73</v>
       </c>
       <c r="R5" s="1" t="s">
-        <v>106</v>
+        <v>73</v>
       </c>
       <c r="S5" s="1" t="s">
         <v>73</v>
@@ -1440,71 +1379,72 @@
         <v>74</v>
       </c>
       <c r="U5" s="1" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="V5" s="1" t="s">
-        <v>76</v>
+        <v>107</v>
       </c>
       <c r="W5" s="2"/>
       <c r="X5" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="Y5" s="1" t="s">
         <v>77</v>
       </c>
-      <c r="Y5" s="1" t="s">
-        <v>71</v>
-      </c>
       <c r="Z5" s="1" t="s">
-        <v>78</v>
+        <v>68</v>
       </c>
       <c r="AA5" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="AB5" s="2"/>
+      <c r="AC5" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="AD5" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="AE5" s="2" t="s">
         <v>79</v>
       </c>
-      <c r="AC5" s="2" t="s">
-        <v>80</v>
-      </c>
-      <c r="AD5" s="2" t="s">
-        <v>80</v>
-      </c>
-      <c r="AE5" s="4" t="s">
-        <v>81</v>
-      </c>
-      <c r="AF5" s="4" t="s">
-        <v>82</v>
+      <c r="AF5" s="2" t="s">
+        <v>79</v>
       </c>
       <c r="AG5" s="2"/>
       <c r="AH5" s="1" t="s">
-        <v>77</v>
+        <v>82</v>
       </c>
       <c r="AI5" s="1" t="s">
-        <v>77</v>
+        <v>82</v>
       </c>
       <c r="AJ5" s="1" t="s">
-        <v>83</v>
+        <v>110</v>
       </c>
       <c r="AK5" s="1" t="s">
-        <v>84</v>
+        <v>111</v>
       </c>
       <c r="AL5" s="1" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="AM5" s="1" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="AN5" s="2"/>
       <c r="AO5" s="1" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="AP5" s="1" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="AQ5" s="2"/>
       <c r="AR5" s="1" t="s">
-        <v>71</v>
+        <v>85</v>
       </c>
       <c r="AS5" s="1" t="s">
-        <v>71</v>
+        <v>85</v>
       </c>
       <c r="AT5" s="1" t="s">
-        <v>71</v>
+        <v>85</v>
       </c>
       <c r="AU5" s="2"/>
       <c r="AV5" s="2"/>
@@ -1513,17 +1453,17 @@
         <v>86</v>
       </c>
       <c r="AY5" s="1" t="s">
-        <v>87</v>
+        <v>112</v>
       </c>
       <c r="AZ5" s="1" t="s">
         <v>88</v>
       </c>
       <c r="BA5" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="BB5" s="1" t="s">
         <v>88</v>
       </c>
-      <c r="BB5" s="1" t="s">
-        <v>89</v>
-      </c>
       <c r="BC5" s="1" t="s">
         <v>89</v>
       </c>
@@ -1534,132 +1474,133 @@
         <v>89</v>
       </c>
       <c r="BI5" s="0" t="s">
-        <v>107</v>
+        <v>113</v>
       </c>
     </row>
-    <row r="6" customFormat="false" ht="135.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="6" customFormat="false" ht="145.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="1" t="s">
-        <v>108</v>
+        <v>114</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="E6" s="2"/>
       <c r="F6" s="1" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="G6" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="H6" s="1" t="s">
         <v>69</v>
       </c>
-      <c r="H6" s="1" t="s">
-        <v>110</v>
-      </c>
       <c r="I6" s="1" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="J6" s="1" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="K6" s="1" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="L6" s="1" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="M6" s="1" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="N6" s="1" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="O6" s="2"/>
       <c r="P6" s="1" t="s">
-        <v>111</v>
+        <v>72</v>
       </c>
       <c r="Q6" s="1" t="s">
-        <v>112</v>
+        <v>73</v>
       </c>
       <c r="R6" s="1" t="s">
-        <v>112</v>
+        <v>73</v>
       </c>
       <c r="S6" s="1" t="s">
-        <v>112</v>
+        <v>73</v>
       </c>
       <c r="T6" s="1" t="s">
         <v>74</v>
       </c>
       <c r="U6" s="1" t="s">
-        <v>112</v>
+        <v>73</v>
       </c>
       <c r="V6" s="1" t="s">
-        <v>113</v>
+        <v>107</v>
       </c>
       <c r="W6" s="2"/>
       <c r="X6" s="1" t="s">
-        <v>114</v>
+        <v>76</v>
       </c>
       <c r="Y6" s="1" t="s">
-        <v>115</v>
+        <v>77</v>
       </c>
       <c r="Z6" s="1" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="AA6" s="1" t="s">
-        <v>116</v>
-      </c>
-      <c r="AC6" s="2" t="s">
-        <v>80</v>
-      </c>
-      <c r="AD6" s="2" t="s">
-        <v>80</v>
-      </c>
-      <c r="AE6" s="4" t="s">
+        <v>108</v>
+      </c>
+      <c r="AB6" s="2"/>
+      <c r="AC6" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="AD6" s="1" t="s">
         <v>81</v>
       </c>
-      <c r="AF6" s="4" t="s">
-        <v>82</v>
+      <c r="AE6" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="AF6" s="2" t="s">
+        <v>79</v>
       </c>
       <c r="AG6" s="2"/>
       <c r="AH6" s="1" t="s">
-        <v>72</v>
+        <v>98</v>
       </c>
       <c r="AI6" s="1" t="s">
-        <v>72</v>
+        <v>98</v>
       </c>
       <c r="AJ6" s="1" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="AK6" s="1" t="s">
-        <v>117</v>
+        <v>111</v>
       </c>
       <c r="AL6" s="1" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="AM6" s="1" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="AN6" s="2"/>
       <c r="AO6" s="1" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="AP6" s="1" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="AQ6" s="2"/>
       <c r="AR6" s="1" t="s">
-        <v>71</v>
+        <v>85</v>
       </c>
       <c r="AS6" s="1" t="s">
-        <v>71</v>
+        <v>85</v>
       </c>
       <c r="AT6" s="1" t="s">
-        <v>71</v>
+        <v>85</v>
       </c>
       <c r="AU6" s="2"/>
       <c r="AV6" s="2"/>
@@ -1668,153 +1609,154 @@
         <v>86</v>
       </c>
       <c r="AY6" s="1" t="s">
-        <v>118</v>
+        <v>112</v>
       </c>
       <c r="AZ6" s="1" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="BA6" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="BB6" s="1" t="s">
         <v>88</v>
       </c>
-      <c r="BB6" s="1" t="s">
-        <v>89</v>
-      </c>
       <c r="BC6" s="1" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="BD6" s="1" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="BE6" s="2" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="BI6" s="0" t="s">
-        <v>119</v>
+        <v>115</v>
       </c>
     </row>
-    <row r="7" customFormat="false" ht="135.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="7" customFormat="false" ht="145.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="1" t="s">
-        <v>120</v>
+        <v>116</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="E7" s="2"/>
       <c r="F7" s="1" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="G7" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="H7" s="1" t="s">
         <v>69</v>
       </c>
-      <c r="H7" s="1" t="s">
-        <v>110</v>
-      </c>
       <c r="I7" s="1" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="J7" s="1" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="K7" s="1" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="L7" s="1" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="M7" s="1" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="N7" s="1" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="O7" s="2"/>
       <c r="P7" s="1" t="s">
-        <v>111</v>
+        <v>72</v>
       </c>
       <c r="Q7" s="1" t="s">
-        <v>112</v>
+        <v>73</v>
       </c>
       <c r="R7" s="1" t="s">
-        <v>112</v>
+        <v>73</v>
       </c>
       <c r="S7" s="1" t="s">
-        <v>112</v>
+        <v>73</v>
       </c>
       <c r="T7" s="1" t="s">
         <v>74</v>
       </c>
       <c r="U7" s="1" t="s">
-        <v>112</v>
+        <v>73</v>
       </c>
       <c r="V7" s="1" t="s">
-        <v>113</v>
+        <v>107</v>
       </c>
       <c r="W7" s="2"/>
       <c r="X7" s="1" t="s">
-        <v>114</v>
+        <v>76</v>
       </c>
       <c r="Y7" s="1" t="s">
-        <v>115</v>
+        <v>77</v>
       </c>
       <c r="Z7" s="1" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="AA7" s="1" t="s">
-        <v>116</v>
-      </c>
-      <c r="AC7" s="2" t="s">
-        <v>80</v>
-      </c>
-      <c r="AD7" s="2" t="s">
-        <v>80</v>
-      </c>
-      <c r="AE7" s="4" t="s">
+        <v>108</v>
+      </c>
+      <c r="AB7" s="2"/>
+      <c r="AC7" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="AD7" s="1" t="s">
         <v>81</v>
       </c>
-      <c r="AF7" s="4" t="s">
-        <v>82</v>
+      <c r="AE7" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="AF7" s="2" t="s">
+        <v>79</v>
       </c>
       <c r="AG7" s="2"/>
       <c r="AH7" s="1" t="s">
-        <v>121</v>
+        <v>103</v>
       </c>
       <c r="AI7" s="1" t="s">
-        <v>121</v>
+        <v>103</v>
       </c>
       <c r="AJ7" s="1" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="AK7" s="1" t="s">
-        <v>117</v>
+        <v>111</v>
       </c>
       <c r="AL7" s="1" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="AM7" s="1" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="AN7" s="2"/>
       <c r="AO7" s="1" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="AP7" s="1" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="AQ7" s="2"/>
       <c r="AR7" s="1" t="s">
-        <v>71</v>
+        <v>85</v>
       </c>
       <c r="AS7" s="1" t="s">
-        <v>71</v>
+        <v>85</v>
       </c>
       <c r="AT7" s="1" t="s">
-        <v>71</v>
+        <v>85</v>
       </c>
       <c r="AU7" s="2"/>
       <c r="AV7" s="2"/>
@@ -1823,150 +1765,151 @@
         <v>86</v>
       </c>
       <c r="AY7" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="AZ7" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="BA7" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="BB7" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="BC7" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="BD7" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="BE7" s="2" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="8" customFormat="false" ht="145.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A8" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="B8" s="1" t="s">
         <v>118</v>
       </c>
-      <c r="AZ7" s="1" t="s">
-        <v>89</v>
-      </c>
-      <c r="BA7" s="1" t="s">
-        <v>88</v>
-      </c>
-      <c r="BB7" s="1" t="s">
-        <v>89</v>
-      </c>
-      <c r="BC7" s="1" t="s">
-        <v>88</v>
-      </c>
-      <c r="BD7" s="1" t="s">
-        <v>88</v>
-      </c>
-      <c r="BE7" s="2" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="8" customFormat="false" ht="135.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="1" t="s">
-        <v>122</v>
-      </c>
-      <c r="B8" s="1" t="s">
-        <v>109</v>
-      </c>
       <c r="C8" s="3" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="E8" s="2"/>
       <c r="F8" s="1" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="G8" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="H8" s="1" t="s">
         <v>69</v>
       </c>
-      <c r="H8" s="1" t="s">
-        <v>110</v>
-      </c>
       <c r="I8" s="1" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="J8" s="1" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="K8" s="1" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="L8" s="1" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="M8" s="1" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="N8" s="1" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="O8" s="2"/>
       <c r="P8" s="1" t="s">
-        <v>111</v>
+        <v>72</v>
       </c>
       <c r="Q8" s="1" t="s">
-        <v>112</v>
+        <v>73</v>
       </c>
       <c r="R8" s="1" t="s">
-        <v>112</v>
+        <v>73</v>
       </c>
       <c r="S8" s="1" t="s">
-        <v>112</v>
+        <v>73</v>
       </c>
       <c r="T8" s="1" t="s">
         <v>74</v>
       </c>
       <c r="U8" s="1" t="s">
-        <v>112</v>
+        <v>73</v>
       </c>
       <c r="V8" s="1" t="s">
-        <v>113</v>
+        <v>107</v>
       </c>
       <c r="W8" s="2"/>
       <c r="X8" s="1" t="s">
-        <v>114</v>
+        <v>119</v>
       </c>
       <c r="Y8" s="1" t="s">
-        <v>115</v>
+        <v>120</v>
       </c>
       <c r="Z8" s="1" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="AA8" s="1" t="s">
-        <v>116</v>
-      </c>
-      <c r="AC8" s="2" t="s">
-        <v>80</v>
-      </c>
-      <c r="AD8" s="2" t="s">
-        <v>80</v>
-      </c>
-      <c r="AE8" s="4" t="s">
+        <v>121</v>
+      </c>
+      <c r="AB8" s="2"/>
+      <c r="AC8" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="AD8" s="1" t="s">
         <v>81</v>
       </c>
-      <c r="AF8" s="4" t="s">
-        <v>82</v>
+      <c r="AE8" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="AF8" s="2" t="s">
+        <v>79</v>
       </c>
       <c r="AG8" s="2"/>
       <c r="AH8" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="AI8" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="AJ8" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="AK8" s="1" t="s">
         <v>123</v>
       </c>
-      <c r="AI8" s="1" t="s">
-        <v>123</v>
-      </c>
-      <c r="AJ8" s="1" t="s">
-        <v>113</v>
-      </c>
-      <c r="AK8" s="1" t="s">
-        <v>117</v>
-      </c>
       <c r="AL8" s="1" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="AM8" s="1" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="AN8" s="2"/>
       <c r="AO8" s="1" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="AP8" s="1" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="AQ8" s="2"/>
       <c r="AR8" s="1" t="s">
-        <v>71</v>
+        <v>85</v>
       </c>
       <c r="AS8" s="1" t="s">
-        <v>71</v>
+        <v>85</v>
       </c>
       <c r="AT8" s="1" t="s">
-        <v>71</v>
+        <v>85</v>
       </c>
       <c r="AU8" s="2"/>
       <c r="AV8" s="2"/>
@@ -1975,151 +1918,151 @@
         <v>86</v>
       </c>
       <c r="AY8" s="1" t="s">
-        <v>118</v>
+        <v>112</v>
       </c>
       <c r="AZ8" s="1" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="BA8" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="BB8" s="1" t="s">
         <v>88</v>
       </c>
-      <c r="BB8" s="1" t="s">
-        <v>89</v>
-      </c>
       <c r="BC8" s="1" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="BD8" s="1" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="BE8" s="2" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
     </row>
-    <row r="9" customFormat="false" ht="135.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="9" customFormat="false" ht="145.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="1" t="s">
         <v>124</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>125</v>
+        <v>118</v>
       </c>
       <c r="C9" s="3" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="E9" s="2"/>
       <c r="F9" s="1" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="G9" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="H9" s="1" t="s">
         <v>69</v>
       </c>
-      <c r="H9" s="1" t="s">
-        <v>110</v>
-      </c>
       <c r="I9" s="1" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="J9" s="1" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="K9" s="1" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="L9" s="1" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="M9" s="1" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="N9" s="1" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="O9" s="2"/>
       <c r="P9" s="1" t="s">
-        <v>111</v>
+        <v>72</v>
       </c>
       <c r="Q9" s="1" t="s">
-        <v>112</v>
+        <v>73</v>
       </c>
       <c r="R9" s="1" t="s">
-        <v>112</v>
+        <v>73</v>
       </c>
       <c r="S9" s="1" t="s">
-        <v>112</v>
+        <v>73</v>
       </c>
       <c r="T9" s="1" t="s">
         <v>74</v>
       </c>
       <c r="U9" s="1" t="s">
-        <v>112</v>
+        <v>73</v>
       </c>
       <c r="V9" s="1" t="s">
-        <v>126</v>
+        <v>107</v>
       </c>
       <c r="W9" s="2"/>
       <c r="X9" s="1" t="s">
-        <v>114</v>
+        <v>119</v>
       </c>
       <c r="Y9" s="1" t="s">
-        <v>115</v>
+        <v>120</v>
       </c>
       <c r="Z9" s="1" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="AA9" s="1" t="s">
-        <v>127</v>
+        <v>121</v>
       </c>
       <c r="AB9" s="2"/>
       <c r="AC9" s="1" t="s">
-        <v>128</v>
+        <v>122</v>
       </c>
       <c r="AD9" s="1" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="AE9" s="2" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="AF9" s="2" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="AG9" s="2"/>
       <c r="AH9" s="1" t="s">
-        <v>72</v>
+        <v>98</v>
       </c>
       <c r="AI9" s="1" t="s">
-        <v>72</v>
+        <v>98</v>
       </c>
       <c r="AJ9" s="1" t="s">
-        <v>129</v>
+        <v>110</v>
       </c>
       <c r="AK9" s="1" t="s">
-        <v>130</v>
+        <v>123</v>
       </c>
       <c r="AL9" s="1" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="AM9" s="1" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="AN9" s="2"/>
       <c r="AO9" s="1" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="AP9" s="1" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="AQ9" s="2"/>
       <c r="AR9" s="1" t="s">
-        <v>71</v>
+        <v>85</v>
       </c>
       <c r="AS9" s="1" t="s">
-        <v>71</v>
+        <v>85</v>
       </c>
       <c r="AT9" s="1" t="s">
-        <v>71</v>
+        <v>85</v>
       </c>
       <c r="AU9" s="2"/>
       <c r="AV9" s="2"/>
@@ -2128,151 +2071,151 @@
         <v>86</v>
       </c>
       <c r="AY9" s="1" t="s">
-        <v>131</v>
+        <v>112</v>
       </c>
       <c r="AZ9" s="1" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="BA9" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="BB9" s="1" t="s">
         <v>88</v>
       </c>
-      <c r="BB9" s="1" t="s">
-        <v>89</v>
-      </c>
       <c r="BC9" s="1" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="BD9" s="1" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="BE9" s="2" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
     </row>
-    <row r="10" customFormat="false" ht="135.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="10" customFormat="false" ht="145.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="1" t="s">
-        <v>132</v>
+        <v>125</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>125</v>
+        <v>118</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="E10" s="2"/>
       <c r="F10" s="1" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="G10" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="H10" s="1" t="s">
         <v>69</v>
       </c>
-      <c r="H10" s="1" t="s">
-        <v>110</v>
-      </c>
       <c r="I10" s="1" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="J10" s="1" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="K10" s="1" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="L10" s="1" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="M10" s="1" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="N10" s="1" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="O10" s="2"/>
       <c r="P10" s="1" t="s">
-        <v>111</v>
+        <v>72</v>
       </c>
       <c r="Q10" s="1" t="s">
-        <v>112</v>
+        <v>73</v>
       </c>
       <c r="R10" s="1" t="s">
-        <v>112</v>
+        <v>73</v>
       </c>
       <c r="S10" s="1" t="s">
-        <v>112</v>
+        <v>73</v>
       </c>
       <c r="T10" s="1" t="s">
         <v>74</v>
       </c>
       <c r="U10" s="1" t="s">
-        <v>112</v>
+        <v>73</v>
       </c>
       <c r="V10" s="1" t="s">
-        <v>126</v>
+        <v>107</v>
       </c>
       <c r="W10" s="2"/>
       <c r="X10" s="1" t="s">
-        <v>114</v>
+        <v>119</v>
       </c>
       <c r="Y10" s="1" t="s">
-        <v>115</v>
+        <v>120</v>
       </c>
       <c r="Z10" s="1" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="AA10" s="1" t="s">
-        <v>127</v>
+        <v>121</v>
       </c>
       <c r="AB10" s="2"/>
       <c r="AC10" s="1" t="s">
-        <v>128</v>
+        <v>122</v>
       </c>
       <c r="AD10" s="1" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="AE10" s="2" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="AF10" s="2" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="AG10" s="2"/>
       <c r="AH10" s="1" t="s">
-        <v>121</v>
+        <v>103</v>
       </c>
       <c r="AI10" s="1" t="s">
-        <v>121</v>
+        <v>103</v>
       </c>
       <c r="AJ10" s="1" t="s">
-        <v>129</v>
+        <v>110</v>
       </c>
       <c r="AK10" s="1" t="s">
-        <v>130</v>
+        <v>123</v>
       </c>
       <c r="AL10" s="1" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="AM10" s="1" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="AN10" s="2"/>
       <c r="AO10" s="1" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="AP10" s="1" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="AQ10" s="2"/>
       <c r="AR10" s="1" t="s">
-        <v>71</v>
+        <v>85</v>
       </c>
       <c r="AS10" s="1" t="s">
-        <v>71</v>
+        <v>85</v>
       </c>
       <c r="AT10" s="1" t="s">
-        <v>71</v>
+        <v>85</v>
       </c>
       <c r="AU10" s="2"/>
       <c r="AV10" s="2"/>
@@ -2281,637 +2224,25 @@
         <v>86</v>
       </c>
       <c r="AY10" s="1" t="s">
-        <v>131</v>
+        <v>112</v>
       </c>
       <c r="AZ10" s="1" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="BA10" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="BB10" s="1" t="s">
         <v>88</v>
       </c>
-      <c r="BB10" s="1" t="s">
-        <v>89</v>
-      </c>
       <c r="BC10" s="1" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="BD10" s="1" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="BE10" s="2" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="11" customFormat="false" ht="135.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="1" t="s">
-        <v>133</v>
-      </c>
-      <c r="B11" s="1" t="s">
-        <v>125</v>
-      </c>
-      <c r="C11" s="3" t="s">
-        <v>64</v>
-      </c>
-      <c r="D11" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="E11" s="2"/>
-      <c r="F11" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="G11" s="1" t="s">
-        <v>69</v>
-      </c>
-      <c r="H11" s="1" t="s">
-        <v>110</v>
-      </c>
-      <c r="I11" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="J11" s="1" t="s">
-        <v>69</v>
-      </c>
-      <c r="K11" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="L11" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="M11" s="1" t="s">
-        <v>69</v>
-      </c>
-      <c r="N11" s="1" t="s">
-        <v>69</v>
-      </c>
-      <c r="O11" s="2"/>
-      <c r="P11" s="1" t="s">
-        <v>111</v>
-      </c>
-      <c r="Q11" s="1" t="s">
-        <v>112</v>
-      </c>
-      <c r="R11" s="1" t="s">
-        <v>112</v>
-      </c>
-      <c r="S11" s="1" t="s">
-        <v>112</v>
-      </c>
-      <c r="T11" s="1" t="s">
-        <v>74</v>
-      </c>
-      <c r="U11" s="1" t="s">
-        <v>112</v>
-      </c>
-      <c r="V11" s="1" t="s">
-        <v>126</v>
-      </c>
-      <c r="W11" s="2"/>
-      <c r="X11" s="1" t="s">
-        <v>114</v>
-      </c>
-      <c r="Y11" s="1" t="s">
-        <v>115</v>
-      </c>
-      <c r="Z11" s="1" t="s">
-        <v>69</v>
-      </c>
-      <c r="AA11" s="1" t="s">
-        <v>127</v>
-      </c>
-      <c r="AB11" s="2"/>
-      <c r="AC11" s="1" t="s">
-        <v>128</v>
-      </c>
-      <c r="AD11" s="1" t="s">
-        <v>82</v>
-      </c>
-      <c r="AE11" s="2" t="s">
-        <v>80</v>
-      </c>
-      <c r="AF11" s="2" t="s">
-        <v>80</v>
-      </c>
-      <c r="AG11" s="2"/>
-      <c r="AH11" s="1" t="s">
-        <v>123</v>
-      </c>
-      <c r="AI11" s="1" t="s">
-        <v>123</v>
-      </c>
-      <c r="AJ11" s="1" t="s">
-        <v>129</v>
-      </c>
-      <c r="AK11" s="1" t="s">
-        <v>130</v>
-      </c>
-      <c r="AL11" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="AM11" s="1" t="s">
-        <v>85</v>
-      </c>
-      <c r="AN11" s="2"/>
-      <c r="AO11" s="1" t="s">
-        <v>85</v>
-      </c>
-      <c r="AP11" s="1" t="s">
-        <v>85</v>
-      </c>
-      <c r="AQ11" s="2"/>
-      <c r="AR11" s="1" t="s">
-        <v>71</v>
-      </c>
-      <c r="AS11" s="1" t="s">
-        <v>71</v>
-      </c>
-      <c r="AT11" s="1" t="s">
-        <v>71</v>
-      </c>
-      <c r="AU11" s="2"/>
-      <c r="AV11" s="2"/>
-      <c r="AW11" s="2"/>
-      <c r="AX11" s="1" t="s">
-        <v>86</v>
-      </c>
-      <c r="AY11" s="1" t="s">
-        <v>131</v>
-      </c>
-      <c r="AZ11" s="1" t="s">
-        <v>89</v>
-      </c>
-      <c r="BA11" s="1" t="s">
-        <v>88</v>
-      </c>
-      <c r="BB11" s="1" t="s">
-        <v>89</v>
-      </c>
-      <c r="BC11" s="1" t="s">
-        <v>88</v>
-      </c>
-      <c r="BD11" s="1" t="s">
-        <v>88</v>
-      </c>
-      <c r="BE11" s="2" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="12" customFormat="false" ht="135.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="1" t="s">
-        <v>134</v>
-      </c>
-      <c r="B12" s="1" t="s">
-        <v>135</v>
-      </c>
-      <c r="C12" s="3" t="s">
-        <v>64</v>
-      </c>
-      <c r="D12" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="E12" s="2"/>
-      <c r="F12" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="G12" s="1" t="s">
-        <v>69</v>
-      </c>
-      <c r="H12" s="1" t="s">
-        <v>110</v>
-      </c>
-      <c r="I12" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="J12" s="1" t="s">
-        <v>69</v>
-      </c>
-      <c r="K12" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="L12" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="M12" s="1" t="s">
-        <v>69</v>
-      </c>
-      <c r="N12" s="1" t="s">
-        <v>69</v>
-      </c>
-      <c r="O12" s="2"/>
-      <c r="P12" s="1" t="s">
-        <v>111</v>
-      </c>
-      <c r="Q12" s="1" t="s">
-        <v>112</v>
-      </c>
-      <c r="R12" s="1" t="s">
-        <v>112</v>
-      </c>
-      <c r="S12" s="1" t="s">
-        <v>112</v>
-      </c>
-      <c r="T12" s="1" t="s">
-        <v>74</v>
-      </c>
-      <c r="U12" s="1" t="s">
-        <v>112</v>
-      </c>
-      <c r="V12" s="1" t="s">
-        <v>126</v>
-      </c>
-      <c r="W12" s="2"/>
-      <c r="X12" s="1" t="s">
-        <v>136</v>
-      </c>
-      <c r="Y12" s="1" t="s">
-        <v>137</v>
-      </c>
-      <c r="Z12" s="1" t="s">
-        <v>69</v>
-      </c>
-      <c r="AA12" s="1" t="s">
-        <v>138</v>
-      </c>
-      <c r="AB12" s="2"/>
-      <c r="AC12" s="1" t="s">
-        <v>139</v>
-      </c>
-      <c r="AD12" s="1" t="s">
-        <v>82</v>
-      </c>
-      <c r="AE12" s="2" t="s">
-        <v>80</v>
-      </c>
-      <c r="AF12" s="2" t="s">
-        <v>80</v>
-      </c>
-      <c r="AG12" s="2"/>
-      <c r="AH12" s="1" t="s">
-        <v>72</v>
-      </c>
-      <c r="AI12" s="1" t="s">
-        <v>72</v>
-      </c>
-      <c r="AJ12" s="1" t="s">
-        <v>129</v>
-      </c>
-      <c r="AK12" s="1" t="s">
-        <v>140</v>
-      </c>
-      <c r="AL12" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="AM12" s="1" t="s">
-        <v>85</v>
-      </c>
-      <c r="AN12" s="2"/>
-      <c r="AO12" s="1" t="s">
-        <v>85</v>
-      </c>
-      <c r="AP12" s="1" t="s">
-        <v>85</v>
-      </c>
-      <c r="AQ12" s="2"/>
-      <c r="AR12" s="1" t="s">
-        <v>71</v>
-      </c>
-      <c r="AS12" s="1" t="s">
-        <v>71</v>
-      </c>
-      <c r="AT12" s="1" t="s">
-        <v>71</v>
-      </c>
-      <c r="AU12" s="2"/>
-      <c r="AV12" s="2"/>
-      <c r="AW12" s="2"/>
-      <c r="AX12" s="1" t="s">
-        <v>86</v>
-      </c>
-      <c r="AY12" s="1" t="s">
-        <v>131</v>
-      </c>
-      <c r="AZ12" s="1" t="s">
-        <v>89</v>
-      </c>
-      <c r="BA12" s="1" t="s">
-        <v>88</v>
-      </c>
-      <c r="BB12" s="1" t="s">
-        <v>89</v>
-      </c>
-      <c r="BC12" s="1" t="s">
-        <v>88</v>
-      </c>
-      <c r="BD12" s="1" t="s">
-        <v>88</v>
-      </c>
-      <c r="BE12" s="2" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="13" customFormat="false" ht="135.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="1" t="s">
-        <v>141</v>
-      </c>
-      <c r="B13" s="1" t="s">
-        <v>135</v>
-      </c>
-      <c r="C13" s="3" t="s">
-        <v>64</v>
-      </c>
-      <c r="D13" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="E13" s="2"/>
-      <c r="F13" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="G13" s="1" t="s">
-        <v>69</v>
-      </c>
-      <c r="H13" s="1" t="s">
-        <v>110</v>
-      </c>
-      <c r="I13" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="J13" s="1" t="s">
-        <v>69</v>
-      </c>
-      <c r="K13" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="L13" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="M13" s="1" t="s">
-        <v>69</v>
-      </c>
-      <c r="N13" s="1" t="s">
-        <v>69</v>
-      </c>
-      <c r="O13" s="2"/>
-      <c r="P13" s="1" t="s">
-        <v>111</v>
-      </c>
-      <c r="Q13" s="1" t="s">
-        <v>112</v>
-      </c>
-      <c r="R13" s="1" t="s">
-        <v>112</v>
-      </c>
-      <c r="S13" s="1" t="s">
-        <v>112</v>
-      </c>
-      <c r="T13" s="1" t="s">
-        <v>74</v>
-      </c>
-      <c r="U13" s="1" t="s">
-        <v>112</v>
-      </c>
-      <c r="V13" s="1" t="s">
-        <v>126</v>
-      </c>
-      <c r="W13" s="2"/>
-      <c r="X13" s="1" t="s">
-        <v>136</v>
-      </c>
-      <c r="Y13" s="1" t="s">
-        <v>137</v>
-      </c>
-      <c r="Z13" s="1" t="s">
-        <v>69</v>
-      </c>
-      <c r="AA13" s="1" t="s">
-        <v>138</v>
-      </c>
-      <c r="AB13" s="2"/>
-      <c r="AC13" s="1" t="s">
-        <v>139</v>
-      </c>
-      <c r="AD13" s="1" t="s">
-        <v>82</v>
-      </c>
-      <c r="AE13" s="2" t="s">
-        <v>80</v>
-      </c>
-      <c r="AF13" s="2" t="s">
-        <v>80</v>
-      </c>
-      <c r="AG13" s="2"/>
-      <c r="AH13" s="1" t="s">
-        <v>121</v>
-      </c>
-      <c r="AI13" s="1" t="s">
-        <v>121</v>
-      </c>
-      <c r="AJ13" s="1" t="s">
-        <v>129</v>
-      </c>
-      <c r="AK13" s="1" t="s">
-        <v>140</v>
-      </c>
-      <c r="AL13" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="AM13" s="1" t="s">
-        <v>85</v>
-      </c>
-      <c r="AN13" s="2"/>
-      <c r="AO13" s="1" t="s">
-        <v>85</v>
-      </c>
-      <c r="AP13" s="1" t="s">
-        <v>85</v>
-      </c>
-      <c r="AQ13" s="2"/>
-      <c r="AR13" s="1" t="s">
-        <v>71</v>
-      </c>
-      <c r="AS13" s="1" t="s">
-        <v>71</v>
-      </c>
-      <c r="AT13" s="1" t="s">
-        <v>71</v>
-      </c>
-      <c r="AU13" s="2"/>
-      <c r="AV13" s="2"/>
-      <c r="AW13" s="2"/>
-      <c r="AX13" s="1" t="s">
-        <v>86</v>
-      </c>
-      <c r="AY13" s="1" t="s">
-        <v>131</v>
-      </c>
-      <c r="AZ13" s="1" t="s">
-        <v>89</v>
-      </c>
-      <c r="BA13" s="1" t="s">
-        <v>88</v>
-      </c>
-      <c r="BB13" s="1" t="s">
-        <v>89</v>
-      </c>
-      <c r="BC13" s="1" t="s">
-        <v>88</v>
-      </c>
-      <c r="BD13" s="1" t="s">
-        <v>88</v>
-      </c>
-      <c r="BE13" s="2" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="14" customFormat="false" ht="135.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="1" t="s">
-        <v>142</v>
-      </c>
-      <c r="B14" s="1" t="s">
-        <v>135</v>
-      </c>
-      <c r="C14" s="3" t="s">
-        <v>64</v>
-      </c>
-      <c r="D14" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="E14" s="2"/>
-      <c r="F14" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="G14" s="1" t="s">
-        <v>69</v>
-      </c>
-      <c r="H14" s="1" t="s">
-        <v>110</v>
-      </c>
-      <c r="I14" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="J14" s="1" t="s">
-        <v>69</v>
-      </c>
-      <c r="K14" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="L14" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="M14" s="1" t="s">
-        <v>69</v>
-      </c>
-      <c r="N14" s="1" t="s">
-        <v>69</v>
-      </c>
-      <c r="O14" s="2"/>
-      <c r="P14" s="1" t="s">
-        <v>111</v>
-      </c>
-      <c r="Q14" s="1" t="s">
-        <v>112</v>
-      </c>
-      <c r="R14" s="1" t="s">
-        <v>112</v>
-      </c>
-      <c r="S14" s="1" t="s">
-        <v>112</v>
-      </c>
-      <c r="T14" s="1" t="s">
-        <v>74</v>
-      </c>
-      <c r="U14" s="1" t="s">
-        <v>112</v>
-      </c>
-      <c r="V14" s="1" t="s">
-        <v>126</v>
-      </c>
-      <c r="W14" s="2"/>
-      <c r="X14" s="1" t="s">
-        <v>136</v>
-      </c>
-      <c r="Y14" s="1" t="s">
-        <v>137</v>
-      </c>
-      <c r="Z14" s="1" t="s">
-        <v>69</v>
-      </c>
-      <c r="AA14" s="1" t="s">
-        <v>138</v>
-      </c>
-      <c r="AB14" s="2"/>
-      <c r="AC14" s="1" t="s">
-        <v>139</v>
-      </c>
-      <c r="AD14" s="1" t="s">
-        <v>82</v>
-      </c>
-      <c r="AE14" s="2" t="s">
-        <v>80</v>
-      </c>
-      <c r="AF14" s="2" t="s">
-        <v>80</v>
-      </c>
-      <c r="AG14" s="2"/>
-      <c r="AH14" s="1" t="s">
-        <v>123</v>
-      </c>
-      <c r="AI14" s="1" t="s">
-        <v>123</v>
-      </c>
-      <c r="AJ14" s="1" t="s">
-        <v>129</v>
-      </c>
-      <c r="AK14" s="1" t="s">
-        <v>140</v>
-      </c>
-      <c r="AL14" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="AM14" s="1" t="s">
-        <v>85</v>
-      </c>
-      <c r="AN14" s="2"/>
-      <c r="AO14" s="1" t="s">
-        <v>85</v>
-      </c>
-      <c r="AP14" s="1" t="s">
-        <v>85</v>
-      </c>
-      <c r="AQ14" s="2"/>
-      <c r="AR14" s="1" t="s">
-        <v>71</v>
-      </c>
-      <c r="AS14" s="1" t="s">
-        <v>71</v>
-      </c>
-      <c r="AT14" s="1" t="s">
-        <v>71</v>
-      </c>
-      <c r="AU14" s="2"/>
-      <c r="AV14" s="2"/>
-      <c r="AW14" s="2"/>
-      <c r="AX14" s="1" t="s">
-        <v>86</v>
-      </c>
-      <c r="AY14" s="1" t="s">
-        <v>131</v>
-      </c>
-      <c r="AZ14" s="1" t="s">
-        <v>89</v>
-      </c>
-      <c r="BA14" s="1" t="s">
-        <v>88</v>
-      </c>
-      <c r="BB14" s="1" t="s">
-        <v>89</v>
-      </c>
-      <c r="BC14" s="1" t="s">
-        <v>88</v>
-      </c>
-      <c r="BD14" s="1" t="s">
-        <v>88</v>
-      </c>
-      <c r="BE14" s="2" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
     </row>
   </sheetData>
